--- a/TABELLE_PIVOT1.xlsx
+++ b/TABELLE_PIVOT1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,22 +17,12 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2189,7 +2179,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -2368,7 +2358,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight14" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -2680,7 +2670,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
